--- a/biology/Zoologie/Idiochelifer_nigripalpus/Idiochelifer_nigripalpus.xlsx
+++ b/biology/Zoologie/Idiochelifer_nigripalpus/Idiochelifer_nigripalpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Idiochelifer nigripalpus, unique représentant du genre Idiochelifer, est une espèce de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre en Arkansas, au Missouri, en Iowa, au Wisconsin, en Illinois, en Indiana et au Michigan.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Arkansas, au Missouri, en Iowa, au Wisconsin, en Illinois, en Indiana et au Michigan.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ewing, 1911 : Notes on pseudoscorpions; a study on the variations of our common species, Chelifer cancroides Linn., with systematic notes on other species. Journal of the New York Entomological Society, vol. 19, p. 65-81 (texte intégral).
 Chamberlin, 1932 : A synoptic revision of the generic classification of the chelonethid family Cheliferidae Simon (Arachnida) (continued). Canadian Entomologist, vol. 64, p. 17-21 &amp; 35-39.</t>
